--- a/data/league_data/germany/18/germany_passing.xlsx
+++ b/data/league_data/germany/18/germany_passing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/germany/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7142F5-7BFB-3B4C-9F0E-9B95822E95CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6562AE98-16B3-444D-8355-5709D196053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -712,9 +712,6 @@
     <t>au AUS</t>
   </si>
   <si>
-    <t>Rafinha</t>
-  </si>
-  <si>
     <t>Alfreð Finnbogason</t>
   </si>
   <si>
@@ -1757,12 +1754,15 @@
   </si>
   <si>
     <t>Alexander Meier</t>
+  </si>
+  <si>
+    <t>Rafinha de Souza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2623,14 +2623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD486"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2662,7 +2662,7 @@
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16370,12 +16370,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>230</v>
+        <v>578</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>39</v>
@@ -16462,15 +16462,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>111</v>
@@ -16554,12 +16554,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>89</v>
@@ -16646,12 +16646,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>87</v>
@@ -16738,12 +16738,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>21</v>
@@ -16830,12 +16830,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>21</v>
@@ -16922,12 +16922,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>162</v>
@@ -17014,12 +17014,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>21</v>
@@ -17106,12 +17106,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>21</v>
@@ -17198,12 +17198,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>21</v>
@@ -17290,12 +17290,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>93</v>
@@ -17382,12 +17382,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>87</v>
@@ -17474,12 +17474,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>21</v>
@@ -17566,15 +17566,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>28</v>
@@ -17658,12 +17658,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>21</v>
@@ -17750,12 +17750,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>21</v>
@@ -17842,12 +17842,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>21</v>
@@ -17934,12 +17934,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>21</v>
@@ -18026,12 +18026,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>72</v>
@@ -18118,12 +18118,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>98</v>
@@ -18210,12 +18210,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>121</v>
@@ -18302,12 +18302,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>121</v>
@@ -18394,12 +18394,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>21</v>
@@ -18486,12 +18486,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>45</v>
@@ -18578,12 +18578,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>87</v>
@@ -18670,15 +18670,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>77</v>
@@ -18762,12 +18762,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>21</v>
@@ -18854,15 +18854,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>62</v>
@@ -18946,12 +18946,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>223</v>
@@ -19038,15 +19038,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>28</v>
@@ -19130,12 +19130,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>39</v>
@@ -19222,12 +19222,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>145</v>
@@ -19314,12 +19314,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>21</v>
@@ -19406,12 +19406,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>21</v>
@@ -19498,12 +19498,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>21</v>
@@ -19590,12 +19590,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>50</v>
@@ -19682,12 +19682,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>42</v>
@@ -19774,15 +19774,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>74</v>
@@ -19866,12 +19866,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>21</v>
@@ -19958,12 +19958,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>87</v>
@@ -20050,12 +20050,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>121</v>
@@ -20142,12 +20142,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>21</v>
@@ -20234,12 +20234,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>21</v>
@@ -20326,12 +20326,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>21</v>
@@ -20418,12 +20418,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>21</v>
@@ -20510,12 +20510,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>21</v>
@@ -20602,12 +20602,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>98</v>
@@ -20694,12 +20694,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>21</v>
@@ -20786,12 +20786,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>21</v>
@@ -20878,12 +20878,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>42</v>
@@ -20970,12 +20970,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>89</v>
@@ -21062,12 +21062,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>143</v>
@@ -21154,15 +21154,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>111</v>
@@ -21246,15 +21246,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>28</v>
@@ -21338,12 +21338,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>98</v>
@@ -21430,12 +21430,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>50</v>
@@ -21522,15 +21522,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>111</v>
@@ -21614,12 +21614,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>130</v>
@@ -21706,12 +21706,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>107</v>
@@ -21798,12 +21798,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>87</v>
@@ -21890,12 +21890,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>21</v>
@@ -21982,15 +21982,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>28</v>
@@ -22074,12 +22074,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>107</v>
@@ -22166,12 +22166,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>21</v>
@@ -22258,15 +22258,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>111</v>
@@ -22350,12 +22350,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>39</v>
@@ -22442,12 +22442,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>21</v>
@@ -22534,12 +22534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>87</v>
@@ -22626,12 +22626,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>21</v>
@@ -22718,12 +22718,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>39</v>
@@ -22810,12 +22810,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>80</v>
@@ -22902,12 +22902,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>21</v>
@@ -22994,12 +22994,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>21</v>
@@ -23086,12 +23086,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>21</v>
@@ -23178,12 +23178,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>87</v>
@@ -23270,12 +23270,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>42</v>
@@ -23362,12 +23362,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>21</v>
@@ -23454,12 +23454,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>21</v>
@@ -23546,12 +23546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>145</v>
@@ -23638,12 +23638,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>223</v>
@@ -23730,15 +23730,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>28</v>
@@ -23822,12 +23822,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>21</v>
@@ -23914,12 +23914,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>21</v>
@@ -24006,12 +24006,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>42</v>
@@ -24098,12 +24098,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>21</v>
@@ -24190,12 +24190,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>159</v>
@@ -24282,12 +24282,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>21</v>
@@ -24374,12 +24374,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>21</v>
@@ -24466,12 +24466,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>21</v>
@@ -24558,12 +24558,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>21</v>
@@ -24650,12 +24650,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>42</v>
@@ -24742,12 +24742,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>21</v>
@@ -24834,12 +24834,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>42</v>
@@ -24926,12 +24926,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>21</v>
@@ -25018,12 +25018,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>21</v>
@@ -25110,15 +25110,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>28</v>
@@ -25202,12 +25202,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>151</v>
@@ -25294,12 +25294,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>21</v>
@@ -25386,12 +25386,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>21</v>
@@ -25478,12 +25478,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>21</v>
@@ -25570,12 +25570,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>42</v>
@@ -25662,12 +25662,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>21</v>
@@ -25754,12 +25754,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>21</v>
@@ -25846,12 +25846,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>21</v>
@@ -25938,12 +25938,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>21</v>
@@ -26030,12 +26030,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>179</v>
@@ -26122,12 +26122,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>21</v>
@@ -26214,12 +26214,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>21</v>
@@ -26306,12 +26306,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>21</v>
@@ -26398,12 +26398,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>87</v>
@@ -26490,12 +26490,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>107</v>
@@ -26582,15 +26582,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>74</v>
@@ -26674,12 +26674,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>98</v>
@@ -26766,12 +26766,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>21</v>
@@ -26858,12 +26858,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>50</v>
@@ -26950,12 +26950,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>21</v>
@@ -27042,15 +27042,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>74</v>
@@ -27134,15 +27134,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>77</v>
@@ -27226,12 +27226,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>151</v>
@@ -27318,12 +27318,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>159</v>
@@ -27410,12 +27410,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>98</v>
@@ -27502,12 +27502,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>21</v>
@@ -27594,12 +27594,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>80</v>
@@ -27686,12 +27686,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>21</v>
@@ -27778,12 +27778,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>21</v>
@@ -27870,12 +27870,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>223</v>
@@ -27962,15 +27962,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>111</v>
@@ -28054,12 +28054,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>21</v>
@@ -28146,15 +28146,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C278" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>62</v>
@@ -28238,12 +28238,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>21</v>
@@ -28330,12 +28330,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>93</v>
@@ -28422,12 +28422,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>21</v>
@@ -28514,12 +28514,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>89</v>
@@ -28606,15 +28606,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>28</v>
@@ -28698,12 +28698,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>21</v>
@@ -28790,12 +28790,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>50</v>
@@ -28882,12 +28882,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>200</v>
@@ -28974,12 +28974,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>21</v>
@@ -29066,12 +29066,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>50</v>
@@ -29158,12 +29158,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>25</v>
@@ -29250,15 +29250,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>208</v>
@@ -29342,12 +29342,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>21</v>
@@ -29434,12 +29434,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>21</v>
@@ -29526,12 +29526,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>53</v>
@@ -29618,12 +29618,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>223</v>
@@ -29710,12 +29710,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>162</v>
@@ -29802,12 +29802,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>21</v>
@@ -29894,12 +29894,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>87</v>
@@ -29986,12 +29986,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>42</v>
@@ -30078,12 +30078,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>159</v>
@@ -30170,15 +30170,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>77</v>
@@ -30262,12 +30262,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>21</v>
@@ -30354,12 +30354,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>25</v>
@@ -30446,12 +30446,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>21</v>
@@ -30538,12 +30538,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>223</v>
@@ -30630,12 +30630,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>87</v>
@@ -30722,12 +30722,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>50</v>
@@ -30814,12 +30814,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>21</v>
@@ -30906,12 +30906,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>42</v>
@@ -30998,12 +30998,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>21</v>
@@ -31090,12 +31090,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>64</v>
@@ -31182,12 +31182,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>25</v>
@@ -31274,12 +31274,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>69</v>
@@ -31366,12 +31366,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>162</v>
@@ -31458,12 +31458,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>223</v>
@@ -31550,12 +31550,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>87</v>
@@ -31642,15 +31642,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>77</v>
@@ -31734,12 +31734,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>98</v>
@@ -31826,12 +31826,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>162</v>
@@ -31918,12 +31918,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>145</v>
@@ -32010,12 +32010,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>21</v>
@@ -32102,12 +32102,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>21</v>
@@ -32194,12 +32194,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>151</v>
@@ -32286,12 +32286,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>143</v>
@@ -32378,12 +32378,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>50</v>
@@ -32470,12 +32470,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>45</v>
@@ -32562,12 +32562,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>21</v>
@@ -32654,12 +32654,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>21</v>
@@ -32746,15 +32746,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C328" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>111</v>
@@ -32838,12 +32838,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>21</v>
@@ -32930,12 +32930,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>72</v>
@@ -33022,12 +33022,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>21</v>
@@ -33114,12 +33114,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>50</v>
@@ -33206,12 +33206,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>42</v>
@@ -33298,12 +33298,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>21</v>
@@ -33390,12 +33390,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>21</v>
@@ -33482,12 +33482,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>39</v>
@@ -33574,12 +33574,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>21</v>
@@ -33666,12 +33666,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>87</v>
@@ -33758,12 +33758,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>162</v>
@@ -33850,12 +33850,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>98</v>
@@ -33942,12 +33942,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>21</v>
@@ -34034,15 +34034,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C342" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C342" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>74</v>
@@ -34126,15 +34126,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>62</v>
@@ -34218,15 +34218,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C344" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>74</v>
@@ -34310,15 +34310,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>28</v>
@@ -34402,15 +34402,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>31</v>
@@ -34494,12 +34494,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>179</v>
@@ -34586,12 +34586,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>42</v>
@@ -34678,12 +34678,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>50</v>
@@ -34770,12 +34770,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>145</v>
@@ -34862,12 +34862,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>39</v>
@@ -34954,15 +34954,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>31</v>
@@ -35046,15 +35046,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C353" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C353" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>74</v>
@@ -35138,12 +35138,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>21</v>
@@ -35230,12 +35230,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>21</v>
@@ -35322,12 +35322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>179</v>
@@ -35414,15 +35414,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C357" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>31</v>
@@ -35506,12 +35506,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>21</v>
@@ -35598,15 +35598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>74</v>
@@ -35690,12 +35690,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>21</v>
@@ -35782,12 +35782,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>21</v>
@@ -35874,12 +35874,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>21</v>
@@ -35966,12 +35966,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>21</v>
@@ -36058,15 +36058,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C364" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>74</v>
@@ -36150,15 +36150,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>77</v>
@@ -36242,12 +36242,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>21</v>
@@ -36334,12 +36334,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>21</v>
@@ -36426,12 +36426,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>72</v>
@@ -36518,12 +36518,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>21</v>
@@ -36610,12 +36610,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>50</v>
@@ -36702,12 +36702,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>196</v>
@@ -36794,12 +36794,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>21</v>
@@ -36886,15 +36886,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C373" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>62</v>
@@ -36978,12 +36978,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>50</v>
@@ -37070,15 +37070,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>74</v>
@@ -37162,12 +37162,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>145</v>
@@ -37254,12 +37254,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>21</v>
@@ -37346,12 +37346,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>21</v>
@@ -37438,12 +37438,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>21</v>
@@ -37530,12 +37530,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>21</v>
@@ -37622,12 +37622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>21</v>
@@ -37714,12 +37714,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>89</v>
@@ -37806,12 +37806,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>21</v>
@@ -37898,12 +37898,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>162</v>
@@ -37990,12 +37990,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>179</v>
@@ -38082,12 +38082,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>87</v>
@@ -38174,15 +38174,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>74</v>
@@ -38266,12 +38266,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>21</v>
@@ -38358,12 +38358,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>179</v>
@@ -38450,15 +38450,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>111</v>
@@ -38542,12 +38542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>89</v>
@@ -38634,12 +38634,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>50</v>
@@ -38726,12 +38726,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>151</v>
@@ -38818,15 +38818,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>111</v>
@@ -38910,12 +38910,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>87</v>
@@ -39002,12 +39002,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>107</v>
@@ -39094,12 +39094,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>167</v>
@@ -39186,15 +39186,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>62</v>
@@ -39278,12 +39278,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>145</v>
@@ -39370,15 +39370,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C400" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="C400" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>62</v>
@@ -39462,12 +39462,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>21</v>
@@ -39554,12 +39554,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>21</v>
@@ -39646,12 +39646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>21</v>
@@ -39738,12 +39738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>21</v>
@@ -39830,12 +39830,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>21</v>
@@ -39922,15 +39922,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C406" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>74</v>
@@ -40014,12 +40014,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>21</v>
@@ -40106,12 +40106,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>21</v>
@@ -40198,12 +40198,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>179</v>
@@ -40290,12 +40290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>151</v>
@@ -40382,12 +40382,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>21</v>
@@ -40474,15 +40474,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>74</v>
@@ -40564,12 +40564,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>107</v>
@@ -40654,12 +40654,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>36</v>
@@ -40746,12 +40746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>21</v>
@@ -40838,12 +40838,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>39</v>
@@ -40930,12 +40930,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>72</v>
@@ -41022,15 +41022,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>111</v>
@@ -41114,12 +41114,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>21</v>
@@ -41206,12 +41206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>21</v>
@@ -41298,12 +41298,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>21</v>
@@ -41390,12 +41390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>64</v>
@@ -41482,12 +41482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>21</v>
@@ -41574,12 +41574,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>21</v>
@@ -41666,12 +41666,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>50</v>
@@ -41758,15 +41758,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>62</v>
@@ -41848,12 +41848,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>50</v>
@@ -41940,12 +41940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>87</v>
@@ -42032,12 +42032,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>21</v>
@@ -42124,12 +42124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>21</v>
@@ -42216,12 +42216,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>21</v>
@@ -42308,12 +42308,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>21</v>
@@ -42400,12 +42400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>80</v>
@@ -42492,12 +42492,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>21</v>
@@ -42584,12 +42584,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>21</v>
@@ -42676,12 +42676,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>21</v>
@@ -42768,12 +42768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>21</v>
@@ -42860,12 +42860,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>21</v>
@@ -42952,12 +42952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>21</v>
@@ -43044,15 +43044,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>111</v>
@@ -43134,12 +43134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>21</v>
@@ -43226,15 +43226,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C442" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C442" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>62</v>
@@ -43318,15 +43318,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>77</v>
@@ -43410,12 +43410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>21</v>
@@ -43502,12 +43502,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>21</v>
@@ -43592,15 +43592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>111</v>
@@ -43684,12 +43684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>50</v>
@@ -43776,12 +43776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>21</v>
@@ -43868,12 +43868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>87</v>
@@ -43960,12 +43960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>87</v>
@@ -44052,12 +44052,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>21</v>
@@ -44142,12 +44142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>21</v>
@@ -44232,15 +44232,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>77</v>
@@ -44324,12 +44324,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>159</v>
@@ -44414,15 +44414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>74</v>
@@ -44504,12 +44504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>130</v>
@@ -44596,12 +44596,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>39</v>
@@ -44688,12 +44688,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>223</v>
@@ -44778,12 +44778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>93</v>
@@ -44870,12 +44870,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>21</v>
@@ -44960,12 +44960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>21</v>
@@ -45052,12 +45052,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>53</v>
@@ -45142,12 +45142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>223</v>
@@ -45234,7 +45234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -45326,12 +45326,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>89</v>
@@ -45418,12 +45418,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>130</v>
@@ -45510,12 +45510,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>198</v>
@@ -45600,12 +45600,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>21</v>
@@ -45688,12 +45688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>89</v>
@@ -45776,12 +45776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>21</v>
@@ -45868,12 +45868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>21</v>
@@ -45958,12 +45958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>21</v>
@@ -46048,12 +46048,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>21</v>
@@ -46140,12 +46140,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>72</v>
@@ -46230,15 +46230,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>77</v>
@@ -46318,12 +46318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>223</v>
@@ -46410,12 +46410,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>50</v>
@@ -46502,12 +46502,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>21</v>
@@ -46594,12 +46594,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>72</v>
@@ -46686,12 +46686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>130</v>
@@ -46778,12 +46778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>21</v>
@@ -46868,15 +46868,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>101</v>
@@ -46958,12 +46958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>21</v>
@@ -47046,12 +47046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>223</v>
@@ -47134,12 +47134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>21</v>
@@ -47222,7 +47222,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
